--- a/graduants.xlsx
+++ b/graduants.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ei Rikr\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1358940D-2DD3-448D-9514-02A2770CE645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23CA3A8-0C06-4F78-BAF5-6F55B5505A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{1FDE3F6A-6E65-4CD5-9F8F-0C46A91ABD25}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{1FDE3F6A-6E65-4CD5-9F8F-0C46A91ABD25}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="STUDENTS" sheetId="1" r:id="rId1"/>
+    <sheet name="QUALIFIED" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="872">
   <si>
     <t>DANSO OWIREDU</t>
   </si>
@@ -2041,6 +2042,615 @@
   </si>
   <si>
     <t>210642</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADDO SAKYI COLLINS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABAMFOA DORIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABDUL MANAF RUKAYATU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABEKA PRECIOUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABRAKWAH BENEDICTA OBENG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABREDU WILLIAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACKON EBENEZER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACQUAH JANET AKWELEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACQUAH STEPHEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADDISON ETHEL LEONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADDO DANIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADDO GIDEON</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADDO JACOB  KWASI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADDO LORRAINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADJEI BENEWAA  LINDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADJEI COMFORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADJEI EBENEZER TOKAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADJEI GRACE DAMGUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADJEI IVY MABENA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADJEI JOSEPH KYERE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADONGO ERNEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADUMMEA EMMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADUSEI ABIGAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AFFUM ENOCH KORANTENG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AFRIFA BENEDICTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGBEZUKE RICHARD KUDZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGBODJALU STEPHEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGBODZI PRECIOUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGYARE  NAPOLEON LOUIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGYEI BENJAMIN AMOAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGYEI ERNEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGYEI ERNEST ASARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGYEI FORSTER MANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGYEMANG ATTAFUAH WILLIAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AHIABLEAME AFI PRECIOUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AHIAKPA RUBIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AIDOO DAVID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AKPAKU WISDOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AKUFFO ASHER OKLEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AMANKWAA SOLOMON</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AMANKWAH SETHENA AYEBEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AMEDITOR  RHODA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AMESAAME JOYCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AMO BLESSING KWADWO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AMOAH ROBERT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AMOAKO  BRIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AMOAKO EMMANUEL KWAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AMPOFO ESTHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AMPONSAH DOREEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AMPONSAH MARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANKOMAH BISMARK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANKUMAH CHRISTIANA DANSOWAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANNOR MANTEY BERNARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANSAH DARKWAH A BELINDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANSAH EDWIN KWABENA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANSAH JOSEPH ADJEI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANSAH MICHAEL LARBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANSAH PERPETUAL AYAW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANTWI EMMANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANTWI STEPHEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANTWIWAA BEATRICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> APPEAH PRINCESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> APPIAH GLORIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARKOH BENEDICTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARTHUR SOPHIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASAA LINDA YAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASAMOAH SUSANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASANTE TUFFOUR JOSEPHINE SARPOMAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASANTE MACLEAN NANA KONADU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASARE DEBORAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASARE MANASSEH KWAMINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASARE SANDRA AFRIYIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASIAM FRANCIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASIAMAH PERPETUAL GYAMENA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASINYO MAVIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASOKWA MARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ATILA EWOENAM PAMELA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ATINGAH CHRISTIANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AWUAH ALEXANDER BAFFOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AYEH SAMUEL KORTEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AYERNOR CHARLOTTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AYESU MABEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AYIRIFA TRACY BOATEMAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AZAGLO EUNICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AZIMA SALAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BADU DANIEL BOADU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BAFFOUR DERRICK APPIAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BAIDEN JULIANA YEBOAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BOAKYE SILVERSTINE SARPONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BOAKYEWAA ABIGAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BOATENG ANGELA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BOATENG SHADRACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BOATEY JONATHAN KWAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BOSSRO NATHANIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BRAKO PAULINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BREW YOUNGE REGINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COFFIE ESTHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CROMWELL GEORGE OFFEI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CUDJOE QUEKEY WINIFRED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DARKO GABRIEL ASAMOAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DARKO GODFRED BOSOMPEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DARKWAH SAMPSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DARTEY LINDA NYARKOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DAUDA ALIMATU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DEBRAH PRISCILLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DJATOR GIFTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DOKPA LINDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DONKOR RACHAEL AKOSUAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DORHJIE LILLIAN KORKOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DUKU GLORIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DUMENYAH JOSEPHINE YAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DUODU IRENE OFOSUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DZIMADO DELALI MARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EDNA FREMA AFANI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EFFAH VIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ENYAMAH MILLICENT KWAFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ESHUN RUBBINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ESSIAM DANIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ESTHER ANNAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EWUSI ABIGAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FELICIA AMAKYE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FOSUAA CLARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FOTWE NATHANIEL HOPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FREMPOMAA BELINDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FRIMPONG ABIGAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FRIMPONG NANA AMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GAMAH GLORIA ADAMILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GAMOR ESTHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GYAMPO ADELAIDE OPPONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GYAN ISAAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HUNTOR ISAAC KWABENA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ISSAKA RAKIATU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ISSIFU ZINABU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KAMASAH REJOICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KASSIM ZENATU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KEDZI FELIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KISSIWAA BERLINDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KORANTENG DANIEL GYIMAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KUDOZIA PRINCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KUMI JOSEPHINE ATAA ADOMAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KUMI THEODORA KENSEMA AMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LARBI SANDRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LARTEY ABRAM FRANKLINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LARTEY EMMANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LARTEY REBECCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LARWER JOSEPH TETTEY WAYO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LARYEA JOSHUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LARYEA REGINA NAA ATSWEI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MADJITEY DAVID JUNIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MALIK AKOSUA LAWRENCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MENSAH BEDIAKO SERWA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MENSAH DELPHINE YAWA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MENU JOYCE ELORM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MOHAMMED SEKINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MPERE KEZIE GYANKOMAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NARTEY YOE HAPPY BUERNORKWOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NTEYABAKA  WUJABON ERIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NYAKUTSE ANGELA YAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OBUOBI OBED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OBUOBI SOLOMON</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ODOOM SAM JUDITH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OFFEI KWADWO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OFOSUA VERONICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OKYERE CHRISTIANA MANTEBEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OKYERE THOMAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OMANE ERNESTINA BUAMAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OMARI BEATRICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OSAFO PRISCILLA AGYEIWAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OSEI EMMANUEL BRAKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OSEI ESTHER OYE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OTI BOATENG BENEDICTA B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OWU DORCAS BOAFOAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OWUSU  AMANKWAH JONATHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OWUSU JUDITH ASIEDU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OWUSU SAMUEL SENIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PORTUPHY MIRIAM AKUMTUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QUANSAH OKWAN KOFI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QUAQUE FREDA SARAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QUARTEY CLEMENT ASARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QUAYE JOSEPHINE DEDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QUENOR THEOPHILUS O.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SACKEY FRANCIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SACKITEY ELIZABETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SAFO KANTANKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SAFOA ESTHER NTIAMOAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SAKYIAMAH MERCY SAFOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SEFA BEATRICE KESSEWAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SEWORNU GIFTY DEDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TAKYI EUGENE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TAMAKLOE ERNESTINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TEI MARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TETE SAMUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TETTEH EBENEZER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TETTEH SARAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TETTEY AMOAKIE GIFTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRYPHENA SOPHIA AMO M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TSEKPOE EDITH CHARITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TUATENG RACHEAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TWUMASI AMANDA GYAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TWUMASI GEORGE YIRENKYI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YEBOAH NANCY ADIIDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YEKPLE ENYONAM MARGARET</t>
+  </si>
+  <si>
+    <t>ANKOMAH FLORA DJAN</t>
   </si>
 </sst>
 </file>
@@ -2437,8 +3047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5792ACA0-1B7B-4231-B722-BCB34DECFAA8}">
   <dimension ref="A1:B668"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
-      <selection activeCell="A363" sqref="A363"/>
+    <sheetView topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="B297" sqref="B297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7793,4 +8403,1034 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F824A3D6-33C7-49EC-8EBB-9782D5DF1942}">
+  <dimension ref="A1:A203"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>871</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>